--- a/System analysis/REPORTS/SA-PR-4.xlsx
+++ b/System analysis/REPORTS/SA-PR-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nika_Lis\Desktop\SUAI\1st semester mag\System analysis\REPORTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CE1FA3-BA62-41ED-B257-69C14FE294FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1882431-F292-41D6-903B-3C228E4E9E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{3A954564-FFA7-47B2-B394-F2C5A336FB58}"/>
   </bookViews>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
